--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/KENTUCKY_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/KENTUCKY_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D975"/>
+  <dimension ref="A1:D969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C7">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C25">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C64">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C65">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C96">
@@ -1764,7 +1764,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C106">
@@ -1938,7 +1938,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C119">
@@ -2086,7 +2086,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C160">
@@ -2538,12 +2538,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C164">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C166">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C167">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C172">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C182">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C187">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C195">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C200">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C205">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C211">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C215">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C222">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C223">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C228">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C232">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C241">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C243">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C246">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C249">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C255">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C259">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C262">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C265">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C269">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C277">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C286">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C302">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C306">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C315">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C318">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C323">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C325">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C327">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C330">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C335">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C336">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C338">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C339">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C342">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C348">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C350">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C356">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C364">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C366">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C372">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C374">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C378">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C381">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C382">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C384">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C387">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C390">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C393">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C395">
@@ -6312,7 +6312,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C452">
@@ -6655,7 +6655,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C478">
@@ -6681,7 +6681,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C480">
@@ -6720,7 +6720,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C483">
@@ -6816,7 +6816,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C490">
@@ -6881,7 +6881,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C495">
@@ -7042,7 +7042,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C507">
@@ -7094,7 +7094,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C511">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C513">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C516">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C517">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C519">
@@ -7216,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C520">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C523">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C529">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C531">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C534">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C536">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C542">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C566">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C586">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C607">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C616">
@@ -8651,7 +8651,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C630">
@@ -8755,7 +8755,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C638">
@@ -8885,7 +8885,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C648">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C651">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C652">
@@ -8963,7 +8963,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C654">
@@ -9015,7 +9015,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C658">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C667">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C675">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C677">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C680">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C690">
@@ -9462,7 +9462,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C692">
@@ -9501,7 +9501,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C695">
@@ -9514,7 +9514,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C696">
@@ -9527,7 +9527,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C697">
@@ -9654,7 +9654,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C706">
@@ -9719,7 +9719,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C711">
@@ -9732,7 +9732,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C712">
@@ -9849,7 +9849,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C721">
@@ -9966,7 +9966,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C730">
@@ -10031,7 +10031,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C735">
@@ -10044,7 +10044,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C736">
@@ -10057,7 +10057,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C737">
@@ -10070,7 +10070,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C738">
@@ -10083,7 +10083,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C739">
@@ -10096,7 +10096,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C740">
@@ -10462,7 +10462,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C767">
@@ -10797,7 +10797,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C792">
@@ -10836,7 +10836,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C795">
@@ -10888,7 +10888,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C799">
@@ -10927,7 +10927,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C802">
@@ -10940,7 +10940,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C803">
@@ -11153,7 +11153,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C819">
@@ -11192,7 +11192,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C822">
@@ -11283,7 +11283,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C829">
@@ -11361,7 +11361,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C835">
@@ -11504,7 +11504,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C846">
@@ -11660,7 +11660,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C858">
@@ -11673,7 +11673,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C859">
@@ -11712,7 +11712,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C862">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C871">
@@ -11868,7 +11868,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C874">
@@ -11907,7 +11907,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C877">
@@ -11933,7 +11933,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C879">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C883">
@@ -12102,7 +12102,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C892">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C893">
@@ -12154,7 +12154,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C896">
@@ -12232,7 +12232,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C902">
@@ -12258,7 +12258,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C904">
@@ -12466,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C920">
@@ -12762,7 +12762,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C942">
@@ -12775,7 +12775,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C943">
@@ -12879,7 +12879,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C951">
@@ -13022,7 +13022,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C962">
@@ -13035,7 +13035,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C963">
@@ -13061,7 +13061,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C965">
@@ -13121,41 +13121,6 @@
       </c>
       <c r="D969">
         <v>1</v>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
